--- a/GITA-FED221/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
+++ b/GITA-FED221/000.커리큐럼/주단위상세일정엑셀/실시시험일정.xlsx
@@ -133,7 +133,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -158,6 +158,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="11">
     <border>
@@ -321,7 +327,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -343,9 +349,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -364,20 +367,35 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="3" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -665,7 +683,7 @@
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -677,13 +695,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
     </row>
     <row r="2" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -703,54 +721,54 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="11">
+      <c r="A3" s="16">
         <v>1</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="16">
-        <v>44623</v>
+      <c r="E3" s="19">
+        <v>44641</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="16">
         <v>2</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="17">
-        <v>44642</v>
+      <c r="E4" s="19">
+        <v>44645</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="4">
+      <c r="A5" s="10">
         <v>3</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="7" t="s">
+      <c r="D5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="17">
-        <v>44649</v>
+      <c r="E5" s="13">
+        <v>44652</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
@@ -766,24 +784,24 @@
       <c r="D6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="14">
         <v>44663</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="8">
+      <c r="A7" s="7">
         <v>5</v>
       </c>
-      <c r="B7" s="9" t="s">
+      <c r="B7" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="15">
         <v>44671</v>
       </c>
     </row>
